--- a/benchmark_results.xlsx
+++ b/benchmark_results.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>6275.0</v>
+        <v>588.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>100.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -130,10 +130,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>62.0</v>
+        <v>10.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>100.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
@@ -141,10 +141,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>53.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>100.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
@@ -152,7 +152,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>1.0</v>
@@ -163,10 +163,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>99.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="7">
@@ -185,10 +185,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>99.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">

--- a/benchmark_results.xlsx
+++ b/benchmark_results.xlsx
@@ -119,7 +119,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>588.0</v>
+        <v>589.0</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>10.0</v>
@@ -141,7 +141,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>10.0</v>
@@ -152,7 +152,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>1.0</v>

--- a/benchmark_results.xlsx
+++ b/benchmark_results.xlsx
@@ -119,7 +119,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>589.0</v>
+        <v>1008.0</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>10.0</v>
@@ -130,7 +130,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>10.0</v>
@@ -141,7 +141,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>10.0</v>
@@ -152,7 +152,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>1.0</v>
@@ -163,7 +163,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" t="n" s="0">
         <v>9.0</v>
@@ -174,7 +174,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>1.0</v>
@@ -207,7 +207,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>1.0</v>

--- a/benchmark_results.xlsx
+++ b/benchmark_results.xlsx
@@ -119,7 +119,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>1008.0</v>
+        <v>1451.0</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>10.0</v>
@@ -130,7 +130,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>10.0</v>
@@ -141,7 +141,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>10.0</v>
@@ -152,7 +152,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n" s="0">
         <v>1.0</v>
@@ -174,7 +174,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="C7" t="n" s="0">
         <v>1.0</v>
@@ -185,7 +185,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" t="n" s="0">
         <v>9.0</v>
@@ -207,7 +207,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C10" t="n" s="0">
         <v>1.0</v>
